--- a/Location_based_analysis/under_wind/data/wsl/StationInfo_wsl.xlsx
+++ b/Location_based_analysis/under_wind/data/wsl/StationInfo_wsl.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\pyproj\RainMap\RainData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rainfall\Location_based_analysis\under_wind\data\wsl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630F705B-8622-4F71-90E0-E92699EFD304}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="经纬度" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -440,21 +441,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -468,7 +469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -481,8 +482,11 @@
       <c r="D2">
         <v>37.210510999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -495,8 +499,11 @@
       <c r="D3">
         <v>37.205509999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -509,8 +516,11 @@
       <c r="D4">
         <v>37.165511000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -523,8 +533,11 @@
       <c r="D5">
         <v>37.185617999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -537,8 +550,11 @@
       <c r="D6">
         <v>37.215397000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -551,8 +567,11 @@
       <c r="D7">
         <v>37.214247999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -565,8 +584,11 @@
       <c r="D8">
         <v>37.228040999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -579,8 +601,11 @@
       <c r="D9">
         <v>37.168056</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -593,8 +618,11 @@
       <c r="D10">
         <v>37.235568999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -607,8 +635,11 @@
       <c r="D11">
         <v>37.210740999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -621,8 +652,11 @@
       <c r="D12">
         <v>37.236431000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -635,8 +669,11 @@
       <c r="D13">
         <v>37.155366000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -651,8 +688,11 @@
         <f>37+12/60+3.4/3600</f>
         <v>37.200944444444445</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -666,6 +706,9 @@
       <c r="D15">
         <f>37+11/60+51/3600</f>
         <v>37.197499999999998</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
